--- a/result_book.xlsx
+++ b/result_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Homosexuality-Simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D07C34D-1CB6-F544-B55A-C35EFE38BED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAB46DE-C405-A946-8CCD-4DA739007A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0F359BB7-60CD-1E41-8D3A-A9DA263E17B7}"/>
   </bookViews>
@@ -21019,6 +21019,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="1"/>
+                  <a:t>Generation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -21081,6 +21136,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="1"/>
+                  <a:t>children</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -24547,7 +24657,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(20, 50)</f>
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -24565,7 +24675,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(20, 50)</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -24583,7 +24693,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -24601,7 +24711,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -24619,7 +24729,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -24647,7 +24757,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -24675,7 +24785,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -24703,7 +24813,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -24759,7 +24869,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -24787,7 +24897,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -24815,7 +24925,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -24843,7 +24953,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -24871,7 +24981,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -24899,7 +25009,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -24927,7 +25037,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -24955,7 +25065,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -24983,7 +25093,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -25011,7 +25121,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -25039,7 +25149,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -25067,7 +25177,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -25095,7 +25205,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -25123,7 +25233,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -25151,7 +25261,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -25179,7 +25289,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -25197,7 +25307,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -25215,7 +25325,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -25233,7 +25343,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -25251,7 +25361,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -25269,7 +25379,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -25287,7 +25397,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -25305,7 +25415,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -25323,7 +25433,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -25341,7 +25451,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -25359,7 +25469,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -25377,7 +25487,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -25395,7 +25505,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -25413,7 +25523,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -25431,7 +25541,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -25467,7 +25577,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -25485,7 +25595,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -25503,7 +25613,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -25521,7 +25631,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -25539,7 +25649,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -25557,7 +25667,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -25575,7 +25685,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -25593,7 +25703,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -25611,7 +25721,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -25629,7 +25739,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -25647,7 +25757,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -25665,7 +25775,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -25683,7 +25793,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -25701,7 +25811,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -25719,7 +25829,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -25737,7 +25847,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -25755,7 +25865,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -25791,7 +25901,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -25809,7 +25919,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -25827,7 +25937,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -25845,7 +25955,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -25863,7 +25973,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -25881,7 +25991,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -25899,7 +26009,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -25917,7 +26027,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(20, 50)</f>
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -25935,7 +26045,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -25953,7 +26063,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -25971,7 +26081,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -25989,7 +26099,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -26007,7 +26117,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -26025,7 +26135,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -26043,7 +26153,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -26079,7 +26189,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -26097,7 +26207,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -26115,7 +26225,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -26133,7 +26243,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -26151,7 +26261,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -26169,7 +26279,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -26187,7 +26297,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -26205,7 +26315,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -26223,7 +26333,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -26241,7 +26351,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -26259,7 +26369,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -26277,7 +26387,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -26295,7 +26405,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -26313,7 +26423,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -26331,7 +26441,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -26349,7 +26459,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -26367,7 +26477,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -26385,7 +26495,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -26403,7 +26513,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -26421,7 +26531,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -26439,7 +26549,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -26457,7 +26567,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -26475,7 +26585,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -26493,7 +26603,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -26511,7 +26621,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -26529,7 +26639,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -26547,7 +26657,7 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -26565,7 +26675,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -26583,7 +26693,7 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -26601,7 +26711,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -26619,7 +26729,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -26637,7 +26747,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -26655,7 +26765,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -26673,7 +26783,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -26691,7 +26801,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -26727,7 +26837,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -26745,7 +26855,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -26763,7 +26873,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -26799,7 +26909,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -26817,7 +26927,7 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -26835,7 +26945,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -26853,7 +26963,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -26871,7 +26981,7 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -26889,7 +26999,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -26907,7 +27017,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -26925,7 +27035,7 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -26943,7 +27053,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -26961,7 +27071,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -26979,7 +27089,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -26997,7 +27107,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -27015,7 +27125,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -27033,7 +27143,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -27051,7 +27161,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -27069,7 +27179,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E142" ca="1" si="2">RANDBETWEEN(20, 50)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -27087,7 +27197,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -27105,7 +27215,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -27123,7 +27233,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -27141,7 +27251,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -27159,7 +27269,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -27177,7 +27287,7 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -27195,7 +27305,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -27213,7 +27323,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -27231,7 +27341,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -27249,7 +27359,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -27267,7 +27377,7 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -27285,7 +27395,7 @@
       </c>
       <c r="E143">
         <f ca="1">RANDBETWEEN(20, 50)</f>
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -27320,7 +27430,7 @@
       </c>
       <c r="E145">
         <f ca="1">SUM(E2:E143)</f>
-        <v>5015</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -30857,7 +30967,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -30875,7 +30985,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(20,50)</f>
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -30893,7 +31003,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -30911,7 +31021,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -30929,7 +31039,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -30959,7 +31069,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -30989,7 +31099,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -31019,7 +31129,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -31049,7 +31159,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -31079,7 +31189,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -31109,7 +31219,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -31139,7 +31249,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -31169,7 +31279,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -31199,7 +31309,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -31229,7 +31339,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -31259,7 +31369,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -31319,7 +31429,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -31349,7 +31459,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -31379,7 +31489,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -31409,7 +31519,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -31439,7 +31549,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -31469,7 +31579,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -31499,7 +31609,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -31529,7 +31639,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -31559,7 +31669,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -31589,7 +31699,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -31619,7 +31729,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -31667,7 +31777,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -31703,7 +31813,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -31721,7 +31831,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -31739,7 +31849,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -31757,7 +31867,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -31775,7 +31885,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -31793,7 +31903,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -31811,7 +31921,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -31847,7 +31957,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -31865,7 +31975,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -31883,7 +31993,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -31901,7 +32011,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -31919,7 +32029,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -31937,7 +32047,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -31955,7 +32065,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -31973,7 +32083,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -31991,7 +32101,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -32009,7 +32119,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -32027,7 +32137,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -32045,7 +32155,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -32063,7 +32173,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -32081,7 +32191,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -32099,7 +32209,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -32117,7 +32227,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -32135,7 +32245,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -32153,7 +32263,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -32171,7 +32281,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -32189,7 +32299,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -32207,7 +32317,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -32225,7 +32335,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -32243,7 +32353,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -32261,7 +32371,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -32279,7 +32389,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -32297,7 +32407,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -32315,7 +32425,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(20,50)</f>
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -32333,7 +32443,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -32351,7 +32461,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -32369,7 +32479,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -32387,7 +32497,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -32405,7 +32515,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -32423,7 +32533,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -32441,7 +32551,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -32459,7 +32569,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -32477,7 +32587,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -32495,7 +32605,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -32513,7 +32623,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -32531,7 +32641,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -32549,7 +32659,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -32567,7 +32677,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -32585,7 +32695,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -32603,7 +32713,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -32621,7 +32731,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -32657,7 +32767,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -32675,7 +32785,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -32693,7 +32803,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -32711,7 +32821,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -32729,7 +32839,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -32747,7 +32857,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -32765,7 +32875,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -32783,7 +32893,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -32801,7 +32911,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -32819,7 +32929,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -32837,7 +32947,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -32855,7 +32965,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -32873,7 +32983,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -32891,7 +33001,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -32909,7 +33019,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -32927,7 +33037,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -32945,7 +33055,7 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -32963,7 +33073,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -32981,7 +33091,7 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -32999,7 +33109,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -33017,7 +33127,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -33035,7 +33145,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -33053,7 +33163,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -33071,7 +33181,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -33089,7 +33199,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -33107,7 +33217,7 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -33125,7 +33235,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -33143,7 +33253,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -33161,7 +33271,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -33179,7 +33289,7 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -33197,7 +33307,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -33215,7 +33325,7 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -33233,7 +33343,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -33251,7 +33361,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -33269,7 +33379,7 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -33287,7 +33397,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -33305,7 +33415,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -33323,7 +33433,7 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -33341,7 +33451,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -33359,7 +33469,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -33377,7 +33487,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -33395,7 +33505,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -33413,7 +33523,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -33431,7 +33541,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -33449,7 +33559,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -33467,7 +33577,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E144" ca="1" si="2">RANDBETWEEN(20,50)</f>
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -33485,7 +33595,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -33503,7 +33613,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -33521,7 +33631,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -33539,7 +33649,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -33557,7 +33667,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -33575,7 +33685,7 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -33593,7 +33703,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -33611,7 +33721,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -33629,7 +33739,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -33647,7 +33757,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -33665,7 +33775,7 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -33683,7 +33793,7 @@
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -33701,7 +33811,7 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -33736,7 +33846,7 @@
       </c>
       <c r="E146">
         <f ca="1">SUM(E2:E144)</f>
-        <v>4939</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -37276,7 +37386,7 @@
       </c>
       <c r="E2" s="5">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -37294,7 +37404,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(20,50)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -37312,7 +37422,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -37330,7 +37440,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -37348,7 +37458,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -37366,7 +37476,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -37384,7 +37494,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -37402,7 +37512,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -37420,7 +37530,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -37438,7 +37548,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -37456,7 +37566,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -37474,7 +37584,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -37503,7 +37613,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -37532,7 +37642,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -37561,7 +37671,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -37590,7 +37700,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -37619,7 +37729,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -37648,7 +37758,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -37677,7 +37787,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -37706,7 +37816,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -37735,7 +37845,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -37764,7 +37874,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -37793,7 +37903,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -37822,7 +37932,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -37851,7 +37961,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -37880,7 +37990,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -37909,7 +38019,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -37938,7 +38048,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -37967,7 +38077,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -37996,7 +38106,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -38025,7 +38135,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -38054,7 +38164,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -38083,7 +38193,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -38112,7 +38222,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -38141,7 +38251,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F36" s="6"/>
       <c r="M36" s="3"/>
@@ -38164,7 +38274,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -38182,7 +38292,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -38200,7 +38310,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -38218,7 +38328,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -38236,7 +38346,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -38254,7 +38364,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -38272,7 +38382,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -38290,7 +38400,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -38308,7 +38418,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -38326,7 +38436,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -38344,7 +38454,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -38380,7 +38490,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -38398,7 +38508,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -38416,7 +38526,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -38434,7 +38544,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -38452,7 +38562,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -38470,7 +38580,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -38488,7 +38598,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -38506,7 +38616,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -38524,7 +38634,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -38542,7 +38652,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -38560,7 +38670,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -38578,7 +38688,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -38596,7 +38706,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -38614,7 +38724,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -38632,7 +38742,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -38650,7 +38760,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -38668,7 +38778,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -38686,7 +38796,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -38704,7 +38814,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(20,50)</f>
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -38722,7 +38832,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -38740,7 +38850,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -38758,7 +38868,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -38776,7 +38886,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -38794,7 +38904,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -38812,7 +38922,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -38830,7 +38940,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -38848,7 +38958,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -38866,7 +38976,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -38884,7 +38994,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -38902,7 +39012,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -38920,7 +39030,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -38938,7 +39048,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -38956,7 +39066,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -38974,7 +39084,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -38992,7 +39102,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -39010,7 +39120,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -39028,7 +39138,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -39046,7 +39156,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -39064,7 +39174,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -39082,7 +39192,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -39100,7 +39210,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -39118,7 +39228,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -39154,7 +39264,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -39172,7 +39282,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -39190,7 +39300,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -39208,7 +39318,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -39226,7 +39336,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -39244,7 +39354,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -39280,7 +39390,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -39298,7 +39408,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -39316,7 +39426,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -39334,7 +39444,7 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -39352,7 +39462,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -39370,7 +39480,7 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -39388,7 +39498,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -39406,7 +39516,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -39424,7 +39534,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -39442,7 +39552,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -39460,7 +39570,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -39478,7 +39588,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -39496,7 +39606,7 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -39514,7 +39624,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -39532,7 +39642,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -39550,7 +39660,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -39568,7 +39678,7 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -39586,7 +39696,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -39604,7 +39714,7 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -39622,7 +39732,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -39640,7 +39750,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -39658,7 +39768,7 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -39676,7 +39786,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -39694,7 +39804,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -39712,7 +39822,7 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -39730,7 +39840,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -39748,7 +39858,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -39766,7 +39876,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -39784,7 +39894,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -39802,7 +39912,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -39820,7 +39930,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -39838,7 +39948,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -39856,7 +39966,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E171" ca="1" si="2">RANDBETWEEN(20,50)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -39874,7 +39984,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -39892,7 +40002,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -39910,7 +40020,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -39928,7 +40038,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -39946,7 +40056,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -39964,7 +40074,7 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -39982,7 +40092,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -40000,7 +40110,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -40018,7 +40128,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -40036,7 +40146,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -40054,7 +40164,7 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -40072,7 +40182,7 @@
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -40090,7 +40200,7 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -40126,7 +40236,7 @@
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -40144,7 +40254,7 @@
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -40162,7 +40272,7 @@
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -40180,7 +40290,7 @@
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -40198,7 +40308,7 @@
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -40216,7 +40326,7 @@
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -40234,7 +40344,7 @@
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -40252,7 +40362,7 @@
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -40270,7 +40380,7 @@
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -40288,7 +40398,7 @@
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -40306,7 +40416,7 @@
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -40324,7 +40434,7 @@
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -40342,7 +40452,7 @@
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -40360,7 +40470,7 @@
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -40378,7 +40488,7 @@
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -40396,7 +40506,7 @@
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -40414,7 +40524,7 @@
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -40432,7 +40542,7 @@
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -40450,7 +40560,7 @@
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -40468,7 +40578,7 @@
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -40486,7 +40596,7 @@
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -40504,7 +40614,7 @@
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -40522,7 +40632,7 @@
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -40540,7 +40650,7 @@
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -40558,7 +40668,7 @@
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -40576,7 +40686,7 @@
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -40611,7 +40721,7 @@
       </c>
       <c r="E173">
         <f ca="1">SUM(E2:E172)</f>
-        <v>5921</v>
+        <v>5902</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -44306,7 +44416,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -44324,7 +44434,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(20,50)</f>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -44342,7 +44452,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -44360,7 +44470,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -44378,7 +44488,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -44396,7 +44506,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -44414,7 +44524,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -44432,7 +44542,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -44450,7 +44560,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -44468,7 +44578,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -44486,7 +44596,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -44504,7 +44614,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -44522,7 +44632,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -44540,7 +44650,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -44567,7 +44677,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -44594,7 +44704,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -44621,7 +44731,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -44648,7 +44758,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -44675,7 +44785,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -44702,7 +44812,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -44729,7 +44839,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -44756,7 +44866,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -44783,7 +44893,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -44810,7 +44920,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -44837,7 +44947,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -44864,7 +44974,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -44891,7 +45001,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -44918,7 +45028,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -44945,7 +45055,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -44972,7 +45082,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -44999,7 +45109,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -45026,7 +45136,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -45053,7 +45163,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -45071,7 +45181,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -45089,7 +45199,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -45107,7 +45217,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -45125,7 +45235,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -45143,7 +45253,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -45161,7 +45271,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -45179,7 +45289,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -45197,7 +45307,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -45215,7 +45325,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -45233,7 +45343,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -45251,7 +45361,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -45269,7 +45379,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -45287,7 +45397,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -45305,7 +45415,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -45323,7 +45433,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -45341,7 +45451,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -45359,7 +45469,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -45377,7 +45487,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -45395,7 +45505,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -45413,7 +45523,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -45431,7 +45541,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -45449,7 +45559,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -45467,7 +45577,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -45485,7 +45595,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -45503,7 +45613,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -45521,7 +45631,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -45539,7 +45649,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -45557,7 +45667,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -45593,7 +45703,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -45611,7 +45721,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -45629,7 +45739,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -45647,7 +45757,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(20,50)</f>
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -45665,7 +45775,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -45683,7 +45793,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -45701,7 +45811,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -45719,7 +45829,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -45737,7 +45847,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -45755,7 +45865,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -45773,7 +45883,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -45791,7 +45901,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -45809,7 +45919,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -45827,7 +45937,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -45845,7 +45955,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -45863,7 +45973,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -45881,7 +45991,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -45899,7 +46009,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -45917,7 +46027,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -45935,7 +46045,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -45953,7 +46063,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -45971,7 +46081,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -45989,7 +46099,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -46007,7 +46117,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -46025,7 +46135,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -46043,7 +46153,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -46061,7 +46171,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -46079,7 +46189,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -46097,7 +46207,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -46115,7 +46225,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -46133,7 +46243,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -46151,7 +46261,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -46169,7 +46279,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -46187,7 +46297,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -46205,7 +46315,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -46223,7 +46333,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -46241,7 +46351,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -46259,7 +46369,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -46277,7 +46387,7 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -46295,7 +46405,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -46313,7 +46423,7 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -46331,7 +46441,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -46349,7 +46459,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -46367,7 +46477,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -46385,7 +46495,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -46403,7 +46513,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -46421,7 +46531,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -46439,7 +46549,7 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -46457,7 +46567,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -46475,7 +46585,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -46493,7 +46603,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -46511,7 +46621,7 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -46529,7 +46639,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -46565,7 +46675,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -46583,7 +46693,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -46601,7 +46711,7 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -46619,7 +46729,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -46637,7 +46747,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -46655,7 +46765,7 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -46673,7 +46783,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -46691,7 +46801,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -46709,7 +46819,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -46727,7 +46837,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -46745,7 +46855,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -46763,7 +46873,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -46781,7 +46891,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -46799,7 +46909,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E182" ca="1" si="2">RANDBETWEEN(20,50)</f>
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -46817,7 +46927,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -46835,7 +46945,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -46853,7 +46963,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -46871,7 +46981,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -46889,7 +46999,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -46907,7 +47017,7 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -46925,7 +47035,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -46943,7 +47053,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -46961,7 +47071,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -46979,7 +47089,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -46997,7 +47107,7 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -47015,7 +47125,7 @@
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -47033,7 +47143,7 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -47051,7 +47161,7 @@
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -47069,7 +47179,7 @@
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -47087,7 +47197,7 @@
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -47105,7 +47215,7 @@
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -47123,7 +47233,7 @@
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -47141,7 +47251,7 @@
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -47159,7 +47269,7 @@
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -47177,7 +47287,7 @@
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -47195,7 +47305,7 @@
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -47213,7 +47323,7 @@
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -47231,7 +47341,7 @@
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -47249,7 +47359,7 @@
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -47267,7 +47377,7 @@
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -47285,7 +47395,7 @@
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -47303,7 +47413,7 @@
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -47321,7 +47431,7 @@
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -47339,7 +47449,7 @@
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -47357,7 +47467,7 @@
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -47375,7 +47485,7 @@
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -47393,7 +47503,7 @@
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -47411,7 +47521,7 @@
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -47429,7 +47539,7 @@
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -47447,7 +47557,7 @@
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -47465,7 +47575,7 @@
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -47483,7 +47593,7 @@
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -47501,7 +47611,7 @@
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -47519,7 +47629,7 @@
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -47537,7 +47647,7 @@
       </c>
       <c r="E172">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -47555,7 +47665,7 @@
       </c>
       <c r="E173">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -47573,7 +47683,7 @@
       </c>
       <c r="E174">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -47591,7 +47701,7 @@
       </c>
       <c r="E175">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -47609,7 +47719,7 @@
       </c>
       <c r="E176">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -47627,7 +47737,7 @@
       </c>
       <c r="E177">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -47645,7 +47755,7 @@
       </c>
       <c r="E178">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -47663,7 +47773,7 @@
       </c>
       <c r="E179">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -47681,7 +47791,7 @@
       </c>
       <c r="E180">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -47699,7 +47809,7 @@
       </c>
       <c r="E181">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -47717,7 +47827,7 @@
       </c>
       <c r="E182">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -47752,7 +47862,7 @@
       </c>
       <c r="E184">
         <f ca="1">SUM(E2:E182)</f>
-        <v>6235</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -54563,8 +54673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC667B3-5276-5A4A-BE2E-411CBA62A40F}">
   <dimension ref="A1:R230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/result_book.xlsx
+++ b/result_book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Homosexuality-Simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAB46DE-C405-A946-8CCD-4DA739007A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF06E0A-9374-C045-B419-16D98FF62C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{0F359BB7-60CD-1E41-8D3A-A9DA263E17B7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37380" windowHeight="21100" activeTab="5" xr2:uid="{0F359BB7-60CD-1E41-8D3A-A9DA263E17B7}"/>
   </bookViews>
   <sheets>
     <sheet name="run_1" sheetId="1" r:id="rId1"/>
@@ -17074,7 +17074,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>breeding</a:t>
+              <a:t>breeding SIMULATION</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -21026,7 +21026,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -21039,7 +21039,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000" b="1"/>
+                  <a:rPr lang="en-GB" sz="1050" b="1"/>
                   <a:t>Generation</a:t>
                 </a:r>
               </a:p>
@@ -21058,7 +21058,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -21143,7 +21143,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -21156,7 +21156,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1000" b="1"/>
+                  <a:rPr lang="en-GB" sz="1050" b="1"/>
                   <a:t>children</a:t>
                 </a:r>
               </a:p>
@@ -21175,7 +21175,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -21255,7 +21255,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -24657,7 +24657,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(20, 50)</f>
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -24675,7 +24675,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(20, 50)</f>
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -24693,7 +24693,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -24711,7 +24711,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -24729,7 +24729,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -24757,7 +24757,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -24785,7 +24785,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -24813,7 +24813,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -24841,7 +24841,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -24869,7 +24869,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -24897,7 +24897,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -24925,7 +24925,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -24953,7 +24953,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -24981,7 +24981,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -25009,7 +25009,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -25037,7 +25037,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -25093,7 +25093,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -25121,7 +25121,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -25149,7 +25149,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -25177,7 +25177,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -25205,7 +25205,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -25233,7 +25233,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -25261,7 +25261,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -25289,7 +25289,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -25307,7 +25307,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -25343,7 +25343,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -25361,7 +25361,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -25379,7 +25379,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -25397,7 +25397,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -25415,7 +25415,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -25469,7 +25469,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -25487,7 +25487,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -25505,7 +25505,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -25523,7 +25523,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -25559,7 +25559,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -25577,7 +25577,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -25595,7 +25595,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -25613,7 +25613,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -25649,7 +25649,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -25667,7 +25667,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -25685,7 +25685,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -25703,7 +25703,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -25739,7 +25739,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -25757,7 +25757,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -25775,7 +25775,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -25793,7 +25793,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -25811,7 +25811,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -25829,7 +25829,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -25847,7 +25847,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -25865,7 +25865,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -25883,7 +25883,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -25901,7 +25901,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -25919,7 +25919,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -25937,7 +25937,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -25955,7 +25955,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -25973,7 +25973,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -25991,7 +25991,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -26027,7 +26027,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(20, 50)</f>
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -26045,7 +26045,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -26063,7 +26063,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -26099,7 +26099,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -26117,7 +26117,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -26135,7 +26135,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -26153,7 +26153,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -26171,7 +26171,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -26189,7 +26189,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -26225,7 +26225,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -26243,7 +26243,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -26261,7 +26261,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -26279,7 +26279,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -26297,7 +26297,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -26333,7 +26333,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -26351,7 +26351,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -26369,7 +26369,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -26387,7 +26387,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -26405,7 +26405,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -26423,7 +26423,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -26441,7 +26441,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -26459,7 +26459,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -26477,7 +26477,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -26495,7 +26495,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -26513,7 +26513,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -26531,7 +26531,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -26549,7 +26549,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -26567,7 +26567,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -26585,7 +26585,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -26603,7 +26603,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -26621,7 +26621,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -26639,7 +26639,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -26657,7 +26657,7 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -26675,7 +26675,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -26693,7 +26693,7 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -26711,7 +26711,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -26729,7 +26729,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -26747,7 +26747,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -26765,7 +26765,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -26783,7 +26783,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -26801,7 +26801,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -26819,7 +26819,7 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -26837,7 +26837,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -26855,7 +26855,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -26873,7 +26873,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -26891,7 +26891,7 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -26909,7 +26909,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -26927,7 +26927,7 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -26945,7 +26945,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -26981,7 +26981,7 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -26999,7 +26999,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -27017,7 +27017,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -27035,7 +27035,7 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -27053,7 +27053,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -27071,7 +27071,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -27089,7 +27089,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -27107,7 +27107,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -27125,7 +27125,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -27143,7 +27143,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -27161,7 +27161,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -27179,7 +27179,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E142" ca="1" si="2">RANDBETWEEN(20, 50)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -27215,7 +27215,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -27233,7 +27233,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -27251,7 +27251,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -27269,7 +27269,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -27323,7 +27323,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -27341,7 +27341,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -27359,7 +27359,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -27377,7 +27377,7 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -27395,7 +27395,7 @@
       </c>
       <c r="E143">
         <f ca="1">RANDBETWEEN(20, 50)</f>
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -27430,7 +27430,7 @@
       </c>
       <c r="E145">
         <f ca="1">SUM(E2:E143)</f>
-        <v>4985</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -30967,7 +30967,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -30985,7 +30985,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(20,50)</f>
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -31003,7 +31003,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -31021,7 +31021,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -31039,7 +31039,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -31069,7 +31069,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -31099,7 +31099,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -31129,7 +31129,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -31159,7 +31159,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -31189,7 +31189,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -31219,7 +31219,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -31249,7 +31249,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -31279,7 +31279,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -31309,7 +31309,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -31339,7 +31339,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -31369,7 +31369,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -31399,7 +31399,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -31429,7 +31429,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -31459,7 +31459,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -31489,7 +31489,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -31519,7 +31519,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -31549,7 +31549,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -31579,7 +31579,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -31609,7 +31609,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -31639,7 +31639,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -31669,7 +31669,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -31699,7 +31699,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -31729,7 +31729,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -31759,7 +31759,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -31777,7 +31777,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -31795,7 +31795,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -31813,7 +31813,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -31831,7 +31831,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -31867,7 +31867,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -31885,7 +31885,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -31903,7 +31903,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -31957,7 +31957,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -31975,7 +31975,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -31993,7 +31993,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -32011,7 +32011,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -32029,7 +32029,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -32047,7 +32047,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -32065,7 +32065,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -32083,7 +32083,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -32101,7 +32101,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -32119,7 +32119,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -32137,7 +32137,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -32155,7 +32155,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -32173,7 +32173,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -32191,7 +32191,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -32209,7 +32209,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -32227,7 +32227,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -32245,7 +32245,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -32281,7 +32281,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -32299,7 +32299,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -32317,7 +32317,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -32335,7 +32335,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -32353,7 +32353,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -32371,7 +32371,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -32389,7 +32389,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -32407,7 +32407,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -32425,7 +32425,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(20,50)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -32443,7 +32443,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -32461,7 +32461,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -32479,7 +32479,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -32497,7 +32497,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -32533,7 +32533,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -32551,7 +32551,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -32569,7 +32569,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -32587,7 +32587,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -32605,7 +32605,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -32623,7 +32623,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -32641,7 +32641,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -32659,7 +32659,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -32677,7 +32677,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -32695,7 +32695,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -32713,7 +32713,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -32731,7 +32731,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -32749,7 +32749,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -32767,7 +32767,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -32785,7 +32785,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -32803,7 +32803,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -32821,7 +32821,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -32839,7 +32839,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -32857,7 +32857,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -32875,7 +32875,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -32893,7 +32893,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -32911,7 +32911,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -32929,7 +32929,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -32965,7 +32965,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -32983,7 +32983,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -33001,7 +33001,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -33019,7 +33019,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -33037,7 +33037,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -33055,7 +33055,7 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -33073,7 +33073,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -33091,7 +33091,7 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -33109,7 +33109,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -33127,7 +33127,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -33145,7 +33145,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -33163,7 +33163,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -33181,7 +33181,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -33199,7 +33199,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -33217,7 +33217,7 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -33235,7 +33235,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -33253,7 +33253,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -33271,7 +33271,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -33289,7 +33289,7 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -33307,7 +33307,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -33325,7 +33325,7 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -33343,7 +33343,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -33361,7 +33361,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -33379,7 +33379,7 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -33397,7 +33397,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -33415,7 +33415,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -33433,7 +33433,7 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -33451,7 +33451,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -33469,7 +33469,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -33487,7 +33487,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -33505,7 +33505,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -33523,7 +33523,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -33541,7 +33541,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -33559,7 +33559,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -33577,7 +33577,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E144" ca="1" si="2">RANDBETWEEN(20,50)</f>
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -33595,7 +33595,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -33613,7 +33613,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -33631,7 +33631,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -33649,7 +33649,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -33667,7 +33667,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -33685,7 +33685,7 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -33703,7 +33703,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -33721,7 +33721,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -33739,7 +33739,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -33757,7 +33757,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -33775,7 +33775,7 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -33793,7 +33793,7 @@
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -33846,7 +33846,7 @@
       </c>
       <c r="E146">
         <f ca="1">SUM(E2:E144)</f>
-        <v>4880</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -37386,7 +37386,7 @@
       </c>
       <c r="E2" s="5">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -37404,7 +37404,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(20,50)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -37422,7 +37422,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -37440,7 +37440,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -37458,7 +37458,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -37476,7 +37476,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -37494,7 +37494,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -37512,7 +37512,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -37530,7 +37530,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -37548,7 +37548,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -37566,7 +37566,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -37584,7 +37584,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -37613,7 +37613,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -37642,7 +37642,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -37671,7 +37671,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -37700,7 +37700,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -37729,7 +37729,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -37758,7 +37758,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -37787,7 +37787,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -37816,7 +37816,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -37845,7 +37845,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -37874,7 +37874,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -37903,7 +37903,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -37961,7 +37961,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -37990,7 +37990,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -38019,7 +38019,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -38048,7 +38048,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -38106,7 +38106,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -38135,7 +38135,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -38164,7 +38164,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -38193,7 +38193,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -38222,7 +38222,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -38251,7 +38251,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F36" s="6"/>
       <c r="M36" s="3"/>
@@ -38274,7 +38274,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -38292,7 +38292,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -38310,7 +38310,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -38328,7 +38328,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -38346,7 +38346,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -38364,7 +38364,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -38382,7 +38382,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -38400,7 +38400,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -38418,7 +38418,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -38436,7 +38436,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -38454,7 +38454,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -38472,7 +38472,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -38490,7 +38490,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -38508,7 +38508,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -38526,7 +38526,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -38544,7 +38544,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -38562,7 +38562,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -38580,7 +38580,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -38598,7 +38598,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -38616,7 +38616,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -38634,7 +38634,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -38652,7 +38652,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -38670,7 +38670,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -38688,7 +38688,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -38706,7 +38706,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -38724,7 +38724,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -38742,7 +38742,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -38760,7 +38760,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -38778,7 +38778,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -38814,7 +38814,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(20,50)</f>
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -38832,7 +38832,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -38850,7 +38850,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -38868,7 +38868,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -38904,7 +38904,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -38940,7 +38940,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -38958,7 +38958,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -38976,7 +38976,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -38994,7 +38994,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -39012,7 +39012,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -39030,7 +39030,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -39048,7 +39048,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -39066,7 +39066,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -39084,7 +39084,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -39102,7 +39102,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -39120,7 +39120,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -39138,7 +39138,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -39156,7 +39156,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -39174,7 +39174,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -39192,7 +39192,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -39210,7 +39210,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -39228,7 +39228,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -39246,7 +39246,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -39264,7 +39264,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -39282,7 +39282,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -39300,7 +39300,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -39318,7 +39318,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -39336,7 +39336,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -39354,7 +39354,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -39372,7 +39372,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -39390,7 +39390,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -39408,7 +39408,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -39426,7 +39426,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -39444,7 +39444,7 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -39462,7 +39462,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -39480,7 +39480,7 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -39498,7 +39498,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -39516,7 +39516,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -39534,7 +39534,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -39552,7 +39552,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -39570,7 +39570,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -39588,7 +39588,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -39606,7 +39606,7 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -39624,7 +39624,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -39642,7 +39642,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -39660,7 +39660,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -39678,7 +39678,7 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -39696,7 +39696,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -39714,7 +39714,7 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -39732,7 +39732,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -39750,7 +39750,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -39768,7 +39768,7 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -39786,7 +39786,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -39804,7 +39804,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -39822,7 +39822,7 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -39840,7 +39840,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -39858,7 +39858,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -39876,7 +39876,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -39894,7 +39894,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -39912,7 +39912,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -39930,7 +39930,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -39948,7 +39948,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -39966,7 +39966,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E171" ca="1" si="2">RANDBETWEEN(20,50)</f>
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -39984,7 +39984,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -40002,7 +40002,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -40020,7 +40020,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -40038,7 +40038,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -40056,7 +40056,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -40074,7 +40074,7 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -40092,7 +40092,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -40110,7 +40110,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -40128,7 +40128,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -40146,7 +40146,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -40164,7 +40164,7 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -40182,7 +40182,7 @@
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -40200,7 +40200,7 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -40218,7 +40218,7 @@
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -40236,7 +40236,7 @@
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -40254,7 +40254,7 @@
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -40272,7 +40272,7 @@
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -40290,7 +40290,7 @@
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -40308,7 +40308,7 @@
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -40326,7 +40326,7 @@
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -40344,7 +40344,7 @@
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -40362,7 +40362,7 @@
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -40380,7 +40380,7 @@
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -40398,7 +40398,7 @@
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -40416,7 +40416,7 @@
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -40434,7 +40434,7 @@
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -40452,7 +40452,7 @@
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -40488,7 +40488,7 @@
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -40506,7 +40506,7 @@
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -40524,7 +40524,7 @@
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -40542,7 +40542,7 @@
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -40560,7 +40560,7 @@
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -40578,7 +40578,7 @@
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -40596,7 +40596,7 @@
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -40614,7 +40614,7 @@
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -40632,7 +40632,7 @@
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -40650,7 +40650,7 @@
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -40668,7 +40668,7 @@
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -40686,7 +40686,7 @@
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -40721,7 +40721,7 @@
       </c>
       <c r="E173">
         <f ca="1">SUM(E2:E172)</f>
-        <v>5902</v>
+        <v>5875</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -44416,7 +44416,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -44434,7 +44434,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(20,50)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -44452,7 +44452,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -44470,7 +44470,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -44488,7 +44488,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -44506,7 +44506,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -44524,7 +44524,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -44542,7 +44542,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -44560,7 +44560,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -44578,7 +44578,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -44596,7 +44596,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -44614,7 +44614,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -44632,7 +44632,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -44650,7 +44650,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -44677,7 +44677,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -44704,7 +44704,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -44731,7 +44731,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -44758,7 +44758,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -44785,7 +44785,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -44812,7 +44812,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -44839,7 +44839,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -44866,7 +44866,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -44893,7 +44893,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -44920,7 +44920,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -44947,7 +44947,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -44974,7 +44974,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -45001,7 +45001,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -45028,7 +45028,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -45055,7 +45055,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -45082,7 +45082,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -45109,7 +45109,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -45136,7 +45136,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -45163,7 +45163,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -45181,7 +45181,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -45199,7 +45199,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -45217,7 +45217,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -45235,7 +45235,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -45253,7 +45253,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -45271,7 +45271,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -45289,7 +45289,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -45307,7 +45307,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -45325,7 +45325,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -45361,7 +45361,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -45379,7 +45379,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -45397,7 +45397,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -45415,7 +45415,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -45433,7 +45433,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -45451,7 +45451,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -45469,7 +45469,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -45487,7 +45487,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -45505,7 +45505,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -45523,7 +45523,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -45541,7 +45541,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -45559,7 +45559,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -45577,7 +45577,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -45595,7 +45595,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -45613,7 +45613,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -45631,7 +45631,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -45649,7 +45649,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -45667,7 +45667,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -45685,7 +45685,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -45703,7 +45703,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -45721,7 +45721,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -45739,7 +45739,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -45757,7 +45757,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(20,50)</f>
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -45775,7 +45775,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -45793,7 +45793,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -45811,7 +45811,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -45829,7 +45829,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -45847,7 +45847,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -45865,7 +45865,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -45883,7 +45883,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -45901,7 +45901,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -45919,7 +45919,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -45937,7 +45937,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -45955,7 +45955,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -45973,7 +45973,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -45991,7 +45991,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -46009,7 +46009,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -46027,7 +46027,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -46045,7 +46045,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -46063,7 +46063,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -46081,7 +46081,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -46099,7 +46099,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -46117,7 +46117,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -46135,7 +46135,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -46153,7 +46153,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -46171,7 +46171,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -46189,7 +46189,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -46207,7 +46207,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -46225,7 +46225,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -46243,7 +46243,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -46261,7 +46261,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -46279,7 +46279,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -46297,7 +46297,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -46333,7 +46333,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -46351,7 +46351,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -46369,7 +46369,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -46387,7 +46387,7 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -46405,7 +46405,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -46423,7 +46423,7 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -46441,7 +46441,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -46459,7 +46459,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -46477,7 +46477,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -46495,7 +46495,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -46513,7 +46513,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -46531,7 +46531,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -46549,7 +46549,7 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -46567,7 +46567,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -46585,7 +46585,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -46603,7 +46603,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -46621,7 +46621,7 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -46639,7 +46639,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -46657,7 +46657,7 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -46675,7 +46675,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -46693,7 +46693,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -46729,7 +46729,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -46747,7 +46747,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -46765,7 +46765,7 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -46783,7 +46783,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -46801,7 +46801,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -46819,7 +46819,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -46837,7 +46837,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -46855,7 +46855,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -46873,7 +46873,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -46891,7 +46891,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -46909,7 +46909,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E182" ca="1" si="2">RANDBETWEEN(20,50)</f>
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -46927,7 +46927,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -46945,7 +46945,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -46963,7 +46963,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -46981,7 +46981,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -46999,7 +46999,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -47017,7 +47017,7 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -47035,7 +47035,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -47053,7 +47053,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -47071,7 +47071,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -47089,7 +47089,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -47107,7 +47107,7 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -47125,7 +47125,7 @@
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -47143,7 +47143,7 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -47161,7 +47161,7 @@
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -47179,7 +47179,7 @@
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -47197,7 +47197,7 @@
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -47215,7 +47215,7 @@
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -47233,7 +47233,7 @@
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -47251,7 +47251,7 @@
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -47269,7 +47269,7 @@
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -47287,7 +47287,7 @@
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -47305,7 +47305,7 @@
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -47323,7 +47323,7 @@
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -47341,7 +47341,7 @@
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -47359,7 +47359,7 @@
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -47377,7 +47377,7 @@
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -47395,7 +47395,7 @@
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -47413,7 +47413,7 @@
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -47431,7 +47431,7 @@
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -47449,7 +47449,7 @@
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -47467,7 +47467,7 @@
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -47485,7 +47485,7 @@
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -47503,7 +47503,7 @@
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -47557,7 +47557,7 @@
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -47575,7 +47575,7 @@
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -47593,7 +47593,7 @@
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -47611,7 +47611,7 @@
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -47629,7 +47629,7 @@
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -47647,7 +47647,7 @@
       </c>
       <c r="E172">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -47665,7 +47665,7 @@
       </c>
       <c r="E173">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -47683,7 +47683,7 @@
       </c>
       <c r="E174">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -47701,7 +47701,7 @@
       </c>
       <c r="E175">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -47719,7 +47719,7 @@
       </c>
       <c r="E176">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -47737,7 +47737,7 @@
       </c>
       <c r="E177">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -47755,7 +47755,7 @@
       </c>
       <c r="E178">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -47773,7 +47773,7 @@
       </c>
       <c r="E179">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -47791,7 +47791,7 @@
       </c>
       <c r="E180">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -47809,7 +47809,7 @@
       </c>
       <c r="E181">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -47862,7 +47862,7 @@
       </c>
       <c r="E184">
         <f ca="1">SUM(E2:E182)</f>
-        <v>6251</v>
+        <v>6304</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -54673,8 +54673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC667B3-5276-5A4A-BE2E-411CBA62A40F}">
   <dimension ref="A1:R230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/result_book.xlsx
+++ b/result_book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Homosexuality-Simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF06E0A-9374-C045-B419-16D98FF62C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A02C5CB-E8FC-7846-BA29-3F585CE8E966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="37380" windowHeight="21100" activeTab="5" xr2:uid="{0F359BB7-60CD-1E41-8D3A-A9DA263E17B7}"/>
   </bookViews>
@@ -24657,7 +24657,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(20, 50)</f>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -24675,7 +24675,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(20, 50)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -24693,7 +24693,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -24711,7 +24711,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -24729,7 +24729,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -24757,7 +24757,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -24785,7 +24785,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -24813,7 +24813,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -24841,7 +24841,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -24869,7 +24869,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -24897,7 +24897,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -24925,7 +24925,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -24953,7 +24953,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -24981,7 +24981,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -25009,7 +25009,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -25037,7 +25037,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -25065,7 +25065,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -25093,7 +25093,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -25121,7 +25121,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -25149,7 +25149,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -25177,7 +25177,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -25205,7 +25205,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -25261,7 +25261,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -25289,7 +25289,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -25307,7 +25307,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -25343,7 +25343,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -25361,7 +25361,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -25379,7 +25379,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -25397,7 +25397,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -25415,7 +25415,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -25433,7 +25433,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -25469,7 +25469,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -25487,7 +25487,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -25505,7 +25505,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -25523,7 +25523,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -25541,7 +25541,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -25559,7 +25559,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -25577,7 +25577,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -25595,7 +25595,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -25613,7 +25613,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -25631,7 +25631,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -25649,7 +25649,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -25667,7 +25667,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -25685,7 +25685,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -25703,7 +25703,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -25739,7 +25739,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -25757,7 +25757,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -25775,7 +25775,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -25793,7 +25793,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -25811,7 +25811,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -25829,7 +25829,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -25847,7 +25847,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -25865,7 +25865,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -25883,7 +25883,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -25901,7 +25901,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -25919,7 +25919,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -25937,7 +25937,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -25955,7 +25955,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -25973,7 +25973,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -25991,7 +25991,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -26009,7 +26009,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -26027,7 +26027,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(20, 50)</f>
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -26045,7 +26045,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -26063,7 +26063,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -26099,7 +26099,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -26117,7 +26117,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -26135,7 +26135,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -26153,7 +26153,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -26171,7 +26171,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -26189,7 +26189,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -26225,7 +26225,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -26243,7 +26243,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -26261,7 +26261,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -26279,7 +26279,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -26297,7 +26297,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -26315,7 +26315,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -26333,7 +26333,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -26351,7 +26351,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -26369,7 +26369,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -26387,7 +26387,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -26405,7 +26405,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -26423,7 +26423,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -26441,7 +26441,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -26459,7 +26459,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -26477,7 +26477,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -26495,7 +26495,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -26513,7 +26513,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -26531,7 +26531,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -26549,7 +26549,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -26567,7 +26567,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -26585,7 +26585,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -26603,7 +26603,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -26621,7 +26621,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -26639,7 +26639,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -26675,7 +26675,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -26693,7 +26693,7 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -26711,7 +26711,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -26729,7 +26729,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -26747,7 +26747,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -26765,7 +26765,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -26783,7 +26783,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -26801,7 +26801,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -26819,7 +26819,7 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -26837,7 +26837,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -26855,7 +26855,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -26873,7 +26873,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -26891,7 +26891,7 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -26909,7 +26909,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -26927,7 +26927,7 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -26945,7 +26945,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -26981,7 +26981,7 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -26999,7 +26999,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -27017,7 +27017,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -27035,7 +27035,7 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -27053,7 +27053,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -27071,7 +27071,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -27089,7 +27089,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -27107,7 +27107,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -27125,7 +27125,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -27143,7 +27143,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -27161,7 +27161,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -27179,7 +27179,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E142" ca="1" si="2">RANDBETWEEN(20, 50)</f>
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -27197,7 +27197,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -27215,7 +27215,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -27233,7 +27233,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -27251,7 +27251,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -27269,7 +27269,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -27287,7 +27287,7 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -27323,7 +27323,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -27341,7 +27341,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -27359,7 +27359,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -27377,7 +27377,7 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -27395,7 +27395,7 @@
       </c>
       <c r="E143">
         <f ca="1">RANDBETWEEN(20, 50)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -27430,7 +27430,7 @@
       </c>
       <c r="E145">
         <f ca="1">SUM(E2:E143)</f>
-        <v>4921</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -30967,7 +30967,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -30985,7 +30985,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(20,50)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -31003,7 +31003,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -31021,7 +31021,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -31069,7 +31069,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -31099,7 +31099,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -31129,7 +31129,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -31159,7 +31159,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -31189,7 +31189,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -31219,7 +31219,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -31249,7 +31249,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -31279,7 +31279,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -31339,7 +31339,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -31369,7 +31369,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -31399,7 +31399,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -31429,7 +31429,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -31459,7 +31459,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -31489,7 +31489,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -31549,7 +31549,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -31579,7 +31579,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -31609,7 +31609,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -31639,7 +31639,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -31669,7 +31669,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -31699,7 +31699,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -31729,7 +31729,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -31759,7 +31759,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -31777,7 +31777,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -31795,7 +31795,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -31813,7 +31813,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -31831,7 +31831,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -31867,7 +31867,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -31885,7 +31885,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -31903,7 +31903,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -31939,7 +31939,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -31957,7 +31957,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -31975,7 +31975,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -31993,7 +31993,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -32011,7 +32011,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -32047,7 +32047,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -32065,7 +32065,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -32083,7 +32083,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -32101,7 +32101,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -32155,7 +32155,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -32173,7 +32173,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -32191,7 +32191,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -32209,7 +32209,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -32227,7 +32227,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -32245,7 +32245,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -32281,7 +32281,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -32299,7 +32299,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -32317,7 +32317,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -32335,7 +32335,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -32353,7 +32353,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -32371,7 +32371,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -32389,7 +32389,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -32407,7 +32407,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -32425,7 +32425,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(20,50)</f>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -32443,7 +32443,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -32461,7 +32461,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -32479,7 +32479,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -32497,7 +32497,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -32533,7 +32533,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -32551,7 +32551,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -32569,7 +32569,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -32587,7 +32587,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -32605,7 +32605,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -32623,7 +32623,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -32641,7 +32641,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -32659,7 +32659,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -32677,7 +32677,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -32695,7 +32695,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -32713,7 +32713,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -32731,7 +32731,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -32749,7 +32749,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -32785,7 +32785,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -32803,7 +32803,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -32821,7 +32821,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -32839,7 +32839,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -32857,7 +32857,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -32875,7 +32875,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -32893,7 +32893,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -32911,7 +32911,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -32929,7 +32929,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -32947,7 +32947,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -32965,7 +32965,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -32983,7 +32983,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -33001,7 +33001,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -33019,7 +33019,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -33037,7 +33037,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -33055,7 +33055,7 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -33073,7 +33073,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -33091,7 +33091,7 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -33109,7 +33109,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -33127,7 +33127,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -33145,7 +33145,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -33163,7 +33163,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -33181,7 +33181,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -33199,7 +33199,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -33217,7 +33217,7 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -33235,7 +33235,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -33253,7 +33253,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -33271,7 +33271,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -33289,7 +33289,7 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -33307,7 +33307,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -33325,7 +33325,7 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -33343,7 +33343,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -33361,7 +33361,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -33379,7 +33379,7 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -33397,7 +33397,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -33415,7 +33415,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -33433,7 +33433,7 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -33451,7 +33451,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -33469,7 +33469,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -33487,7 +33487,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -33505,7 +33505,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -33523,7 +33523,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -33541,7 +33541,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -33559,7 +33559,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -33595,7 +33595,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -33613,7 +33613,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -33631,7 +33631,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -33649,7 +33649,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -33667,7 +33667,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -33685,7 +33685,7 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -33703,7 +33703,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -33721,7 +33721,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -33739,7 +33739,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -33757,7 +33757,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -33775,7 +33775,7 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -33793,7 +33793,7 @@
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -33811,7 +33811,7 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -33846,7 +33846,7 @@
       </c>
       <c r="E146">
         <f ca="1">SUM(E2:E144)</f>
-        <v>4942</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -37386,7 +37386,7 @@
       </c>
       <c r="E2" s="5">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -37404,7 +37404,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(20,50)</f>
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -37422,7 +37422,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -37440,7 +37440,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -37458,7 +37458,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -37476,7 +37476,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -37494,7 +37494,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -37512,7 +37512,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -37530,7 +37530,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -37548,7 +37548,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -37566,7 +37566,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -37584,7 +37584,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -37613,7 +37613,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -37642,7 +37642,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -37671,7 +37671,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -37700,7 +37700,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -37729,7 +37729,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -37758,7 +37758,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -37787,7 +37787,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -37816,7 +37816,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -37845,7 +37845,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -37874,7 +37874,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -37903,7 +37903,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -37932,7 +37932,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -37961,7 +37961,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -37990,7 +37990,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -38019,7 +38019,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -38048,7 +38048,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -38106,7 +38106,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -38135,7 +38135,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -38193,7 +38193,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -38222,7 +38222,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -38251,7 +38251,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F36" s="6"/>
       <c r="M36" s="3"/>
@@ -38274,7 +38274,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -38292,7 +38292,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -38310,7 +38310,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
@@ -38328,7 +38328,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -38346,7 +38346,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -38364,7 +38364,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -38382,7 +38382,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -38400,7 +38400,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -38418,7 +38418,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -38436,7 +38436,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -38454,7 +38454,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
@@ -38472,7 +38472,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -38490,7 +38490,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -38508,7 +38508,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -38526,7 +38526,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -38544,7 +38544,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -38562,7 +38562,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -38580,7 +38580,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -38598,7 +38598,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -38616,7 +38616,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -38634,7 +38634,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -38652,7 +38652,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -38670,7 +38670,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -38688,7 +38688,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -38706,7 +38706,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -38724,7 +38724,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -38742,7 +38742,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -38760,7 +38760,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -38778,7 +38778,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -38796,7 +38796,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -38814,7 +38814,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(20,50)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -38832,7 +38832,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -38850,7 +38850,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -38868,7 +38868,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -38886,7 +38886,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -38904,7 +38904,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -38922,7 +38922,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -38940,7 +38940,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -38958,7 +38958,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -38976,7 +38976,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -38994,7 +38994,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -39030,7 +39030,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -39048,7 +39048,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -39066,7 +39066,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -39084,7 +39084,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -39120,7 +39120,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -39138,7 +39138,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -39156,7 +39156,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -39174,7 +39174,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -39192,7 +39192,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -39210,7 +39210,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -39228,7 +39228,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -39246,7 +39246,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -39264,7 +39264,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -39282,7 +39282,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -39300,7 +39300,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -39318,7 +39318,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -39336,7 +39336,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -39354,7 +39354,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -39372,7 +39372,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -39390,7 +39390,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -39426,7 +39426,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -39444,7 +39444,7 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -39462,7 +39462,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -39498,7 +39498,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -39516,7 +39516,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -39534,7 +39534,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -39552,7 +39552,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -39570,7 +39570,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -39588,7 +39588,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -39606,7 +39606,7 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -39624,7 +39624,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -39642,7 +39642,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -39660,7 +39660,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -39678,7 +39678,7 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -39696,7 +39696,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -39714,7 +39714,7 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -39732,7 +39732,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -39750,7 +39750,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -39768,7 +39768,7 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -39786,7 +39786,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -39804,7 +39804,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -39822,7 +39822,7 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -39840,7 +39840,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -39858,7 +39858,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -39876,7 +39876,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -39894,7 +39894,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -39912,7 +39912,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -39930,7 +39930,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -39948,7 +39948,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -39966,7 +39966,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E171" ca="1" si="2">RANDBETWEEN(20,50)</f>
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -39984,7 +39984,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -40002,7 +40002,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -40020,7 +40020,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -40038,7 +40038,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -40056,7 +40056,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -40074,7 +40074,7 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -40092,7 +40092,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -40110,7 +40110,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -40128,7 +40128,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -40146,7 +40146,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -40164,7 +40164,7 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -40182,7 +40182,7 @@
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -40200,7 +40200,7 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -40218,7 +40218,7 @@
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -40236,7 +40236,7 @@
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -40254,7 +40254,7 @@
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -40272,7 +40272,7 @@
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -40290,7 +40290,7 @@
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -40308,7 +40308,7 @@
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -40326,7 +40326,7 @@
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -40344,7 +40344,7 @@
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -40362,7 +40362,7 @@
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -40380,7 +40380,7 @@
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -40398,7 +40398,7 @@
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -40416,7 +40416,7 @@
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -40434,7 +40434,7 @@
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -40452,7 +40452,7 @@
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -40470,7 +40470,7 @@
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -40488,7 +40488,7 @@
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -40506,7 +40506,7 @@
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -40524,7 +40524,7 @@
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -40542,7 +40542,7 @@
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -40560,7 +40560,7 @@
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -40578,7 +40578,7 @@
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -40596,7 +40596,7 @@
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -40614,7 +40614,7 @@
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -40632,7 +40632,7 @@
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -40650,7 +40650,7 @@
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -40668,7 +40668,7 @@
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -40686,7 +40686,7 @@
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -40721,7 +40721,7 @@
       </c>
       <c r="E173">
         <f ca="1">SUM(E2:E172)</f>
-        <v>5875</v>
+        <v>5993</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -44416,7 +44416,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -44434,7 +44434,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(20,50)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -44452,7 +44452,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -44470,7 +44470,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -44488,7 +44488,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -44506,7 +44506,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -44524,7 +44524,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -44542,7 +44542,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -44560,7 +44560,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -44578,7 +44578,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -44596,7 +44596,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -44614,7 +44614,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -44632,7 +44632,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -44650,7 +44650,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -44677,7 +44677,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -44704,7 +44704,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -44758,7 +44758,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -44785,7 +44785,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -44812,7 +44812,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -44839,7 +44839,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -44866,7 +44866,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -44893,7 +44893,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -44920,7 +44920,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -44947,7 +44947,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -44974,7 +44974,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -45001,7 +45001,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -45028,7 +45028,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -45055,7 +45055,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -45082,7 +45082,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -45109,7 +45109,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -45136,7 +45136,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -45163,7 +45163,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -45181,7 +45181,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -45199,7 +45199,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -45217,7 +45217,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -45235,7 +45235,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -45253,7 +45253,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -45271,7 +45271,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -45289,7 +45289,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -45307,7 +45307,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -45325,7 +45325,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -45343,7 +45343,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -45361,7 +45361,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -45379,7 +45379,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -45397,7 +45397,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -45415,7 +45415,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -45451,7 +45451,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -45469,7 +45469,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -45487,7 +45487,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -45505,7 +45505,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -45523,7 +45523,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -45541,7 +45541,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -45559,7 +45559,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -45577,7 +45577,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -45595,7 +45595,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -45613,7 +45613,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -45631,7 +45631,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -45649,7 +45649,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -45667,7 +45667,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -45685,7 +45685,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -45703,7 +45703,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -45721,7 +45721,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -45739,7 +45739,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -45757,7 +45757,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(20,50)</f>
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -45775,7 +45775,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -45793,7 +45793,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -45811,7 +45811,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -45829,7 +45829,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -45847,7 +45847,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -45865,7 +45865,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -45883,7 +45883,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -45901,7 +45901,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -45919,7 +45919,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -45937,7 +45937,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -45955,7 +45955,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -45973,7 +45973,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -45991,7 +45991,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -46027,7 +46027,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -46045,7 +46045,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -46063,7 +46063,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -46081,7 +46081,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -46099,7 +46099,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -46117,7 +46117,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -46135,7 +46135,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -46153,7 +46153,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -46189,7 +46189,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -46207,7 +46207,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -46225,7 +46225,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -46243,7 +46243,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -46261,7 +46261,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -46279,7 +46279,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -46297,7 +46297,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -46315,7 +46315,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -46333,7 +46333,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -46369,7 +46369,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -46387,7 +46387,7 @@
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -46405,7 +46405,7 @@
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -46423,7 +46423,7 @@
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -46441,7 +46441,7 @@
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -46459,7 +46459,7 @@
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -46477,7 +46477,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -46495,7 +46495,7 @@
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -46513,7 +46513,7 @@
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -46531,7 +46531,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -46549,7 +46549,7 @@
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -46567,7 +46567,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -46585,7 +46585,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -46603,7 +46603,7 @@
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -46621,7 +46621,7 @@
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -46639,7 +46639,7 @@
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -46657,7 +46657,7 @@
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -46675,7 +46675,7 @@
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -46693,7 +46693,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -46711,7 +46711,7 @@
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -46729,7 +46729,7 @@
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -46747,7 +46747,7 @@
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -46765,7 +46765,7 @@
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -46783,7 +46783,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -46801,7 +46801,7 @@
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -46819,7 +46819,7 @@
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -46837,7 +46837,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -46855,7 +46855,7 @@
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -46873,7 +46873,7 @@
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -46891,7 +46891,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -46909,7 +46909,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E182" ca="1" si="2">RANDBETWEEN(20,50)</f>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -46927,7 +46927,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -46945,7 +46945,7 @@
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -46963,7 +46963,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -46981,7 +46981,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -46999,7 +46999,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -47017,7 +47017,7 @@
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -47035,7 +47035,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -47053,7 +47053,7 @@
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -47071,7 +47071,7 @@
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -47089,7 +47089,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -47107,7 +47107,7 @@
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -47125,7 +47125,7 @@
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -47143,7 +47143,7 @@
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -47161,7 +47161,7 @@
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -47179,7 +47179,7 @@
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -47215,7 +47215,7 @@
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -47233,7 +47233,7 @@
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -47251,7 +47251,7 @@
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -47269,7 +47269,7 @@
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -47287,7 +47287,7 @@
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -47305,7 +47305,7 @@
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -47323,7 +47323,7 @@
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -47341,7 +47341,7 @@
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -47359,7 +47359,7 @@
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -47377,7 +47377,7 @@
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -47395,7 +47395,7 @@
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -47413,7 +47413,7 @@
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -47431,7 +47431,7 @@
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -47449,7 +47449,7 @@
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -47467,7 +47467,7 @@
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -47485,7 +47485,7 @@
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -47503,7 +47503,7 @@
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -47521,7 +47521,7 @@
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -47539,7 +47539,7 @@
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -47557,7 +47557,7 @@
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -47575,7 +47575,7 @@
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -47593,7 +47593,7 @@
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -47611,7 +47611,7 @@
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -47629,7 +47629,7 @@
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -47647,7 +47647,7 @@
       </c>
       <c r="E172">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -47665,7 +47665,7 @@
       </c>
       <c r="E173">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -47683,7 +47683,7 @@
       </c>
       <c r="E174">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -47701,7 +47701,7 @@
       </c>
       <c r="E175">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -47719,7 +47719,7 @@
       </c>
       <c r="E176">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -47737,7 +47737,7 @@
       </c>
       <c r="E177">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -47755,7 +47755,7 @@
       </c>
       <c r="E178">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -47773,7 +47773,7 @@
       </c>
       <c r="E179">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -47791,7 +47791,7 @@
       </c>
       <c r="E180">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -47809,7 +47809,7 @@
       </c>
       <c r="E181">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -47827,7 +47827,7 @@
       </c>
       <c r="E182">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -47862,7 +47862,7 @@
       </c>
       <c r="E184">
         <f ca="1">SUM(E2:E182)</f>
-        <v>6304</v>
+        <v>6452</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -54673,8 +54673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC667B3-5276-5A4A-BE2E-411CBA62A40F}">
   <dimension ref="A1:R230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
